--- a/chooseschool/excel/2022江苏科技大学.xlsx
+++ b/chooseschool/excel/2022江苏科技大学.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjy\Desktop\cxm\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjy\Desktop\chooseschool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1BBFAB-52A7-4C90-8E57-64A9262D2B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B85CBA-61AC-48E0-94FB-9327A01629DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="160">
   <si>
     <t>录取学院</t>
   </si>
@@ -510,6 +510,10 @@
   </si>
   <si>
     <t>赵丽君</t>
+  </si>
+  <si>
+    <t>学费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -593,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -605,6 +609,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -887,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -900,7 +907,7 @@
     <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,8 +929,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -945,8 +955,11 @@
       <c r="G2" s="3">
         <v>249.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -968,8 +981,11 @@
       <c r="G3" s="3">
         <v>247.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -991,8 +1007,11 @@
       <c r="G4" s="3">
         <v>242.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="G5" s="3">
         <v>237.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1037,8 +1059,11 @@
       <c r="G6" s="3">
         <v>236.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1060,8 +1085,11 @@
       <c r="G7" s="3">
         <v>233.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1083,8 +1111,11 @@
       <c r="G8" s="3">
         <v>232.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1137,11 @@
       <c r="G9" s="3">
         <v>230.56</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1129,8 +1163,11 @@
       <c r="G10" s="3">
         <v>230.06</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1152,8 +1189,11 @@
       <c r="G11" s="3">
         <v>228.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1175,8 +1215,11 @@
       <c r="G12" s="3">
         <v>227.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1198,8 +1241,11 @@
       <c r="G13" s="3">
         <v>226.74</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1221,8 +1267,11 @@
       <c r="G14" s="3">
         <v>226.66</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1244,8 +1293,11 @@
       <c r="G15" s="3">
         <v>226.54</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1267,8 +1319,11 @@
       <c r="G16" s="3">
         <v>226.14</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1290,8 +1345,11 @@
       <c r="G17" s="3">
         <v>225.96</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1313,8 +1371,11 @@
       <c r="G18" s="3">
         <v>224.42</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1336,8 +1397,11 @@
       <c r="G19" s="3">
         <v>224.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1359,8 +1423,11 @@
       <c r="G20" s="3">
         <v>220.76</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1382,8 +1449,11 @@
       <c r="G21" s="3">
         <v>218.76</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1405,8 +1475,11 @@
       <c r="G22" s="3">
         <v>218.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1428,8 +1501,11 @@
       <c r="G23" s="3">
         <v>218.16</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
@@ -1451,8 +1527,11 @@
       <c r="G24" s="3">
         <v>260</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
@@ -1474,8 +1553,11 @@
       <c r="G25" s="3">
         <v>252.38</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
@@ -1497,8 +1579,11 @@
       <c r="G26" s="3">
         <v>247.64</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1520,8 +1605,11 @@
       <c r="G27" s="3">
         <v>246.54</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1543,8 +1631,11 @@
       <c r="G28" s="3">
         <v>245.06</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1566,8 +1657,11 @@
       <c r="G29" s="3">
         <v>241</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1589,8 +1683,11 @@
       <c r="G30" s="3">
         <v>240.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1612,8 +1709,11 @@
       <c r="G31" s="3">
         <v>240.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1635,8 +1735,11 @@
       <c r="G32" s="3">
         <v>240.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
@@ -1658,8 +1761,11 @@
       <c r="G33" s="3">
         <v>238.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
@@ -1681,8 +1787,11 @@
       <c r="G34" s="3">
         <v>238.22</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
@@ -1704,8 +1813,11 @@
       <c r="G35" s="3">
         <v>237.66</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -1727,8 +1839,11 @@
       <c r="G36" s="3">
         <v>237.62</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
@@ -1750,8 +1865,11 @@
       <c r="G37" s="3">
         <v>237.32</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -1773,8 +1891,11 @@
       <c r="G38" s="3">
         <v>237.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -1796,8 +1917,11 @@
       <c r="G39" s="3">
         <v>236.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
@@ -1819,8 +1943,11 @@
       <c r="G40" s="3">
         <v>235.84</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
@@ -1842,8 +1969,11 @@
       <c r="G41" s="3">
         <v>235.72</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -1865,8 +1995,11 @@
       <c r="G42" s="3">
         <v>235.36</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
@@ -1888,8 +2021,11 @@
       <c r="G43" s="3">
         <v>235.16</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -1911,8 +2047,11 @@
       <c r="G44" s="3">
         <v>233.64</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
@@ -1934,8 +2073,11 @@
       <c r="G45" s="3">
         <v>232.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
@@ -1957,8 +2099,11 @@
       <c r="G46" s="3">
         <v>232.78</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -1980,8 +2125,11 @@
       <c r="G47" s="3">
         <v>232.54</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
@@ -2003,8 +2151,11 @@
       <c r="G48" s="3">
         <v>232.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
@@ -2026,8 +2177,11 @@
       <c r="G49" s="3">
         <v>231.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
@@ -2049,8 +2203,11 @@
       <c r="G50" s="3">
         <v>231.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>9</v>
       </c>
@@ -2072,8 +2229,11 @@
       <c r="G51" s="3">
         <v>231.38</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
@@ -2095,8 +2255,11 @@
       <c r="G52" s="3">
         <v>231.28</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -2118,8 +2281,11 @@
       <c r="G53" s="3">
         <v>231.24</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -2141,8 +2307,11 @@
       <c r="G54" s="3">
         <v>230.98</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -2164,8 +2333,11 @@
       <c r="G55" s="3">
         <v>213.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
@@ -2187,8 +2359,11 @@
       <c r="G56" s="3">
         <v>210.18</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>9</v>
       </c>
@@ -2210,8 +2385,11 @@
       <c r="G57" s="3">
         <v>212.12</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
@@ -2233,8 +2411,11 @@
       <c r="G58" s="3">
         <v>228.66</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -2256,8 +2437,11 @@
       <c r="G59" s="3">
         <v>221.28</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
@@ -2279,8 +2463,11 @@
       <c r="G60" s="3">
         <v>220.54</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
@@ -2302,8 +2489,11 @@
       <c r="G61" s="3">
         <v>219.96</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>9</v>
       </c>
@@ -2325,8 +2515,11 @@
       <c r="G62" s="3">
         <v>217.96</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
@@ -2348,8 +2541,11 @@
       <c r="G63" s="3">
         <v>217.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>9</v>
       </c>
@@ -2371,8 +2567,11 @@
       <c r="G64" s="3">
         <v>214.52</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
@@ -2394,8 +2593,11 @@
       <c r="G65" s="3">
         <v>212.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
@@ -2417,8 +2619,11 @@
       <c r="G66" s="3">
         <v>211.84</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
@@ -2440,8 +2645,11 @@
       <c r="G67" s="3">
         <v>211.44</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
@@ -2463,8 +2671,11 @@
       <c r="G68" s="3">
         <v>210.54</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>9</v>
       </c>
@@ -2486,8 +2697,11 @@
       <c r="G69" s="3">
         <v>210.08</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
@@ -2509,8 +2723,11 @@
       <c r="G70" s="3">
         <v>207.24</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>9</v>
       </c>
@@ -2532,8 +2749,11 @@
       <c r="G71" s="3">
         <v>207.16</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
@@ -2555,8 +2775,11 @@
       <c r="G72" s="3">
         <v>199.62</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
@@ -2578,8 +2801,11 @@
       <c r="G73" s="3">
         <v>196.16</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
@@ -2601,8 +2827,11 @@
       <c r="G74" s="3">
         <v>195.74</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>9</v>
       </c>
@@ -2624,8 +2853,11 @@
       <c r="G75" s="3">
         <v>191.86</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H75" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>9</v>
       </c>
@@ -2647,8 +2879,11 @@
       <c r="G76" s="3">
         <v>243.06</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>9</v>
       </c>
@@ -2670,8 +2905,11 @@
       <c r="G77" s="3">
         <v>233.64</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>9</v>
       </c>
@@ -2693,8 +2931,11 @@
       <c r="G78" s="3">
         <v>222.82</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H78" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>9</v>
       </c>
@@ -2716,8 +2957,11 @@
       <c r="G79" s="3">
         <v>216.44</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>9</v>
       </c>
@@ -2739,8 +2983,11 @@
       <c r="G80" s="3">
         <v>213.04</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>9</v>
       </c>
@@ -2762,8 +3009,11 @@
       <c r="G81" s="3">
         <v>210.94</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>9</v>
       </c>
@@ -2785,8 +3035,11 @@
       <c r="G82" s="3">
         <v>210.46</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>9</v>
       </c>
@@ -2808,8 +3061,11 @@
       <c r="G83" s="3">
         <v>210.38</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H83" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
@@ -2831,8 +3087,11 @@
       <c r="G84" s="3">
         <v>208.64</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H84" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>9</v>
       </c>
@@ -2854,8 +3113,11 @@
       <c r="G85" s="3">
         <v>208.28</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
@@ -2877,8 +3139,11 @@
       <c r="G86" s="3">
         <v>206.18</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>9</v>
       </c>
@@ -2900,8 +3165,11 @@
       <c r="G87" s="3">
         <v>205.94</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
@@ -2923,8 +3191,11 @@
       <c r="G88" s="3">
         <v>205.74</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>9</v>
       </c>
@@ -2946,8 +3217,11 @@
       <c r="G89" s="3">
         <v>201.94</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
@@ -2969,8 +3243,11 @@
       <c r="G90" s="3">
         <v>201.66</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>9</v>
       </c>
@@ -2992,8 +3269,11 @@
       <c r="G91" s="3">
         <v>201.58</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
@@ -3015,8 +3295,11 @@
       <c r="G92" s="3">
         <v>200.24</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H92" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>9</v>
       </c>
@@ -3038,8 +3321,11 @@
       <c r="G93" s="3">
         <v>198.94</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
@@ -3061,8 +3347,11 @@
       <c r="G94" s="3">
         <v>198.76</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>9</v>
       </c>
@@ -3084,8 +3373,11 @@
       <c r="G95" s="3">
         <v>196.44</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>9</v>
       </c>
@@ -3107,8 +3399,11 @@
       <c r="G96" s="3">
         <v>196.02</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>9</v>
       </c>
@@ -3130,8 +3425,11 @@
       <c r="G97" s="3">
         <v>195.64</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
@@ -3153,8 +3451,11 @@
       <c r="G98" s="3">
         <v>195.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>9</v>
       </c>
@@ -3176,8 +3477,11 @@
       <c r="G99" s="3">
         <v>194.78</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
@@ -3199,8 +3503,11 @@
       <c r="G100" s="3">
         <v>192.82</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>9</v>
       </c>
@@ -3222,8 +3529,11 @@
       <c r="G101" s="3">
         <v>192.22</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
@@ -3245,8 +3555,11 @@
       <c r="G102" s="3">
         <v>190.94</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>9</v>
       </c>
@@ -3268,8 +3581,11 @@
       <c r="G103" s="3">
         <v>187.46</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>9</v>
       </c>
@@ -3291,8 +3607,11 @@
       <c r="G104" s="3">
         <v>185.82</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>9</v>
       </c>
@@ -3314,8 +3633,11 @@
       <c r="G105" s="3">
         <v>209.64</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>9</v>
       </c>
@@ -3337,8 +3659,11 @@
       <c r="G106" s="3">
         <v>235.22</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>9</v>
       </c>
@@ -3360,8 +3685,11 @@
       <c r="G107" s="3">
         <v>223.32</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>9</v>
       </c>
@@ -3383,8 +3711,11 @@
       <c r="G108" s="3">
         <v>222.48</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>9</v>
       </c>
@@ -3406,8 +3737,11 @@
       <c r="G109" s="3">
         <v>220.66</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>9</v>
       </c>
@@ -3429,8 +3763,11 @@
       <c r="G110" s="3">
         <v>218.9</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>9</v>
       </c>
@@ -3452,8 +3789,11 @@
       <c r="G111" s="3">
         <v>212.54</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>125</v>
       </c>
@@ -3475,8 +3815,11 @@
       <c r="G112" s="3">
         <v>332.78</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>125</v>
       </c>
@@ -3498,8 +3841,11 @@
       <c r="G113" s="3">
         <v>247.02</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H113" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>125</v>
       </c>
@@ -3521,8 +3867,11 @@
       <c r="G114" s="3">
         <v>233.78</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>125</v>
       </c>
@@ -3544,8 +3893,11 @@
       <c r="G115" s="3">
         <v>232.92</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H115" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>125</v>
       </c>
@@ -3567,8 +3919,11 @@
       <c r="G116" s="3">
         <v>231.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H116" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>125</v>
       </c>
@@ -3590,8 +3945,11 @@
       <c r="G117" s="3">
         <v>231.16</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H117" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>125</v>
       </c>
@@ -3613,8 +3971,11 @@
       <c r="G118" s="3">
         <v>229.36</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>125</v>
       </c>
@@ -3636,8 +3997,11 @@
       <c r="G119" s="3">
         <v>226.22</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>125</v>
       </c>
@@ -3659,8 +4023,11 @@
       <c r="G120" s="3">
         <v>225.48</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H120" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>125</v>
       </c>
@@ -3682,8 +4049,11 @@
       <c r="G121" s="3">
         <v>225.44</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>125</v>
       </c>
@@ -3705,8 +4075,11 @@
       <c r="G122" s="3">
         <v>225.34</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H122" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>125</v>
       </c>
@@ -3728,8 +4101,11 @@
       <c r="G123" s="3">
         <v>225.1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H123" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>125</v>
       </c>
@@ -3751,8 +4127,11 @@
       <c r="G124" s="3">
         <v>223.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H124" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>125</v>
       </c>
@@ -3774,8 +4153,11 @@
       <c r="G125" s="3">
         <v>222.26</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H125" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
@@ -3797,8 +4179,11 @@
       <c r="G126" s="3">
         <v>219.48</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H126" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>125</v>
       </c>
@@ -3820,8 +4205,11 @@
       <c r="G127" s="3">
         <v>217.94</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>125</v>
       </c>
@@ -3843,8 +4231,11 @@
       <c r="G128" s="3">
         <v>217.94</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>125</v>
       </c>
@@ -3866,8 +4257,11 @@
       <c r="G129" s="3">
         <v>215.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H129" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>125</v>
       </c>
@@ -3889,8 +4283,11 @@
       <c r="G130" s="3">
         <v>214.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H130" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>125</v>
       </c>
@@ -3912,8 +4309,11 @@
       <c r="G131" s="3">
         <v>214.06</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H131" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>125</v>
       </c>
@@ -3935,8 +4335,11 @@
       <c r="G132" s="3">
         <v>213.66</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H132" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>125</v>
       </c>
@@ -3958,8 +4361,11 @@
       <c r="G133" s="3">
         <v>213.34</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H133" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>125</v>
       </c>
@@ -3981,8 +4387,11 @@
       <c r="G134" s="3">
         <v>212.34</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H134" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>125</v>
       </c>
@@ -4004,8 +4413,11 @@
       <c r="G135" s="3">
         <v>211.9</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>125</v>
       </c>
@@ -4027,8 +4439,11 @@
       <c r="G136" s="3">
         <v>211.48</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H136" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>125</v>
       </c>
@@ -4050,8 +4465,11 @@
       <c r="G137" s="3">
         <v>211.02</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>125</v>
       </c>
@@ -4073,8 +4491,11 @@
       <c r="G138" s="3">
         <v>209</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H138" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>125</v>
       </c>
@@ -4096,8 +4517,11 @@
       <c r="G139" s="3">
         <v>208.24</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H139" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>125</v>
       </c>
@@ -4119,8 +4543,11 @@
       <c r="G140" s="3">
         <v>206.26</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H140" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>125</v>
       </c>
@@ -4142,8 +4569,11 @@
       <c r="G141" s="3">
         <v>217.86</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H141" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>125</v>
       </c>
@@ -4164,6 +4594,9 @@
       </c>
       <c r="G142" s="3">
         <v>217.72</v>
+      </c>
+      <c r="H142" s="3">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
